--- a/DevisMaison.xlsx
+++ b/DevisMaison.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>Element</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>6 pots</t>
+  </si>
+  <si>
+    <t>Salle de bain</t>
+  </si>
+  <si>
+    <t>Réz-de-chausée</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,8 +365,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5E52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,8 +709,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau36710" displayName="Tableau36710" ref="A1:C9" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau36710" displayName="Tableau36710" ref="A2:C10" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A2:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Pièces" dataDxfId="25"/>
     <tableColumn id="4" name="Prix total" dataDxfId="24"/>
@@ -699,8 +721,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:E25" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:E26" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A2:E26"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Element" dataDxfId="22"/>
     <tableColumn id="2" name="Prix unitaire" dataDxfId="21"/>
@@ -713,8 +735,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau35" displayName="Tableau35" ref="A1:E23" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau35" displayName="Tableau35" ref="A2:E24" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A2:E24"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Element" dataDxfId="18"/>
     <tableColumn id="2" name="Prix unitaire" dataDxfId="17"/>
@@ -727,8 +749,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau36" displayName="Tableau36" ref="A1:E16" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau36" displayName="Tableau36" ref="A2:E17" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A2:E17"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Element" dataDxfId="14"/>
     <tableColumn id="2" name="Prix unitaire" dataDxfId="13"/>
@@ -741,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau367" displayName="Tableau367" ref="A1:E9" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau367" displayName="Tableau367" ref="A2:E10" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A2:E10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Element" dataDxfId="10"/>
     <tableColumn id="2" name="Prix unitaire" dataDxfId="9"/>
@@ -755,8 +777,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau3678" displayName="Tableau3678" ref="A1:E8" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau3678" displayName="Tableau3678" ref="A2:E9" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:E9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Element" dataDxfId="6"/>
     <tableColumn id="2" name="Prix unitaire" dataDxfId="5"/>
@@ -769,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau36789" displayName="Tableau36789" ref="A1:E4" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau36789" displayName="Tableau36789" ref="A2:E5" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:E5"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Element" dataDxfId="2"/>
     <tableColumn id="2" name="Prix unitaire" dataDxfId="1"/>
@@ -1045,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,93 +1080,103 @@
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="4">
-        <f>SDB!D25</f>
-        <v>2496.69</v>
-      </c>
-      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4">
-        <f>RDCH!D23</f>
-        <v>3389.4829999999997</v>
+        <f>SDB!D26</f>
+        <v>2496.69</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4">
-        <f>Grande_chambre!D16</f>
-        <v>3702.2649999999999</v>
+        <f>RDCH!D24</f>
+        <v>3389.4829999999997</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4">
-        <f>Grenier!D9</f>
-        <v>715.96</v>
+        <f>Grande_chambre!D17</f>
+        <v>3702.2649999999999</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4">
-        <f>Couloir_dressing!D8</f>
-        <v>1117.5999999999999</v>
+        <f>Grenier!D10</f>
+        <v>715.96</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="4">
+        <f>Couloir_dressing!D9</f>
+        <v>1117.5999999999999</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="4">
-        <f>BELISOL!D4</f>
+      <c r="B8" s="4">
+        <f>BELISOL!D5</f>
         <v>7000</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7">
-        <f>SUM(B2:B8)</f>
+      <c r="B10" s="7">
+        <f>SUM(B3:B9)</f>
         <v>18421.998</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1156,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,375 +1203,387 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>129</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>129</v>
-      </c>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>2.59</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
-        <v>75</v>
+        <v>2.59</v>
       </c>
       <c r="C11" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
-        <v>60</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>20.27</v>
+        <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
-        <v>547.20000000000005</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
-        <v>18</v>
+        <v>20.27</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
-        <v>108</v>
+        <v>547.20000000000005</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="C17" s="11">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4">
         <v>7.6</v>
       </c>
       <c r="C18" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4">
-        <v>76</v>
+        <v>22.8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4">
-        <v>130</v>
+        <v>7.6</v>
       </c>
       <c r="C19" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4">
-        <v>130</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4">
+        <v>130</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>130</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>250</v>
       </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>250</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4">
-        <v>22.69</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>22.69</v>
-      </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5">
-        <v>159</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="4">
+        <v>22.69</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
-        <v>159</v>
+      <c r="D22" s="4">
+        <v>22.69</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B23" s="5">
+        <v>159</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>159</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7">
-        <f>SUM(D2:D24)</f>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
+        <f>SUM(D3:D25)</f>
         <v>2496.69</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E26" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1551,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A22:XFD23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1566,204 +1610,201 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
-        <f>(B2*C2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D22" si="0">(B3*C3)</f>
+        <f>(B3*C3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D23" si="0">(B4*C4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>68.569999999999993</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>1775.9629999999997</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4">
-        <v>22</v>
+        <v>25.9</v>
       </c>
       <c r="C6" s="3">
-        <v>16</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>352</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>1775.9629999999997</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4">
-        <v>22.69</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>45.38</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4">
-        <v>2.8</v>
+        <v>22.69</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>45.38</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4">
-        <v>2.59</v>
+        <v>2.8</v>
       </c>
       <c r="C11" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>15.54</v>
+        <v>11.2</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4">
-        <v>7.7</v>
+        <v>2.59</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>15.4</v>
+        <v>15.54</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -1774,86 +1815,86 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>51</v>
+      <c r="A15" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <v>629</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>629</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4">
-        <v>130</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <f>(B18*C18)</f>
-        <v>130</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>(B19*C19)</f>
+        <v>130</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
@@ -1861,12 +1902,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1874,18 +1917,31 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7">
-        <f>SUM(D2:D22)</f>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
+        <f>SUM(D3:D23)</f>
         <v>3389.4829999999997</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1897,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A15:XFD23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,254 +1968,266 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3">
-        <v>140</v>
-      </c>
-      <c r="D2" s="4">
-        <f>(B2*C2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4">
-        <v>26.9</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="3">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D15" si="0">(B3*C3)</f>
-        <v>833.9</v>
+        <f>(B3*C3)</f>
+        <v>0</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4">
-        <v>4.5</v>
+        <v>26.9</v>
       </c>
       <c r="C4" s="3">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>270</v>
+        <f t="shared" ref="D4:D16" si="0">(B4*C4)</f>
+        <v>833.9</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4">
-        <v>2.59</v>
+        <v>4.5</v>
       </c>
       <c r="C5" s="3">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>233.1</v>
+        <v>270</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4">
-        <v>7.7</v>
+        <v>2.59</v>
       </c>
       <c r="C6" s="3">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>354.2</v>
+        <v>233.1</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4">
-        <v>14</v>
+        <v>7.7</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>354.2</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4">
-        <v>2.8</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>86.8</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4">
         <v>2.8</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>86.8</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4">
-        <v>2.59</v>
+        <v>2.8</v>
       </c>
       <c r="C10" s="3">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>32.375</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>11.2</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4">
-        <v>40</v>
+        <v>2.59</v>
       </c>
       <c r="C11" s="3">
-        <v>33.5</v>
+        <v>12.5</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>1340</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>32.375</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
-        <v>15</v>
+        <v>33.5</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>1340</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4">
-        <v>22.69</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>22.69</v>
+        <v>360</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4">
+        <v>22.69</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>22.69</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="4">
         <v>130</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7">
-        <f>SUM(D2:D14)</f>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
+        <f>SUM(D3:D15)</f>
         <v>3702.2649999999999</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2171,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A9:XFD24"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2186,104 +2254,101 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <f>B2*C2</f>
-        <v>242.1</v>
-      </c>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4">
-        <v>4.5</v>
+        <v>26.9</v>
       </c>
       <c r="C3" s="3">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D8" si="0">B3*C3</f>
-        <v>180</v>
+        <f>B3*C3</f>
+        <v>242.1</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4">
-        <v>2.59</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="3">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>139.85999999999999</v>
+        <f t="shared" ref="D4:D9" si="0">B4*C4</f>
+        <v>180</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
-        <v>7.7</v>
+        <v>2.59</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>139.85999999999999</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -2294,7 +2359,9 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4">
@@ -2303,19 +2370,32 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7">
-        <f>SUM(D2:D8)</f>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7">
+        <f>SUM(D3:D9)</f>
         <v>715.96</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2327,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A7:XFD23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2342,76 +2422,69 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3">
-        <v>17.84</v>
-      </c>
-      <c r="D2" s="4">
-        <f>B2*C2</f>
-        <v>713.6</v>
-      </c>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
-        <v>6</v>
+        <v>17.84</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>144</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>86</v>
-      </c>
+        <f>B3*C3</f>
+        <v>713.6</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E4" s="3"/>
+        <f t="shared" ref="D4:D8" si="0">B4*C4</f>
+        <v>144</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4">
         <v>130</v>
@@ -2427,18 +2500,24 @@
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4">
+        <v>130</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4">
@@ -2447,19 +2526,32 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7">
-        <f>SUM(D2:D7)</f>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
+        <f>SUM(D3:D8)</f>
         <v>1117.5999999999999</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2471,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2486,62 +2578,74 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>7000</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <f>B2*C2</f>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3*C3</f>
         <v>7000</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3" si="0">B3*C3</f>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4" si="0">B4*C4</f>
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7">
-        <f>SUM(D2:D3)</f>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
+        <f>SUM(D3:D4)</f>
         <v>7000</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
